--- a/Assets/Excel/EntityDataConfig.xlsx
+++ b/Assets/Excel/EntityDataConfig.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="61">
   <si>
     <t>required</t>
   </si>
@@ -163,18 +163,12 @@
     <t>float[]</t>
   </si>
   <si>
-    <t>怪物1</t>
-  </si>
-  <si>
     <t>烈焰朝随机一名敌人发射一团会弹跳的火球。这颗火球将会朝附近敌人弹跳至多4/6/20次，并在每次命中时，造成  2.5/4.5/10x法术强度的魔法伤害</t>
   </si>
   <si>
     <t>[0.5]</t>
   </si>
   <si>
-    <t>怪物2</t>
-  </si>
-  <si>
     <t>对相同目标进行的第三次连续的普攻会造成目标8%/11%/14%最大生命值的真实伤害</t>
   </si>
   <si>
@@ -184,9 +178,6 @@
     <t>[0.1]</t>
   </si>
   <si>
-    <t>怪物3</t>
-  </si>
-  <si>
     <t>战士旋转他的剑刃4秒，期间减免75%技能伤害且可以移动，同时会对周围一格范围内的敌人进行9次打击，每次打击造成40%/65%/115%攻击力的伤害</t>
   </si>
   <si>
@@ -196,148 +187,64 @@
     <t>[0]</t>
   </si>
   <si>
-    <t>怪物4</t>
-  </si>
-  <si>
     <t>精灵为随机1/2/3名友军提供额外60%/80%/100%生命值，持续6秒，并击飞该友军附近范围内的敌人1.25秒</t>
   </si>
   <si>
     <t>[3005]</t>
   </si>
   <si>
-    <t>怪物5</t>
-  </si>
-  <si>
     <t>[3012]</t>
   </si>
   <si>
     <t>[2]</t>
   </si>
   <si>
-    <t>怪物6</t>
-  </si>
-  <si>
     <t>[3014]</t>
   </si>
   <si>
-    <t>怪物7</t>
-  </si>
-  <si>
-    <t>怪物8</t>
-  </si>
-  <si>
     <t>[3015]</t>
   </si>
   <si>
-    <t>怪物9</t>
-  </si>
-  <si>
     <t>[3016,3017]</t>
   </si>
   <si>
     <t>[1]</t>
   </si>
   <si>
-    <t>怪物10</t>
-  </si>
-  <si>
-    <t>怪物11</t>
-  </si>
-  <si>
     <t>[3021,3022]</t>
   </si>
   <si>
     <t>[1.3]</t>
   </si>
   <si>
-    <t>怪物12</t>
-  </si>
-  <si>
     <t>[0.8]</t>
   </si>
   <si>
-    <t>怪物13</t>
-  </si>
-  <si>
     <t>[3025,3026]</t>
   </si>
   <si>
     <t>[0.45,1.5]</t>
   </si>
   <si>
-    <t>怪物14</t>
-  </si>
-  <si>
     <t>[3027]</t>
   </si>
   <si>
-    <t>怪物15</t>
-  </si>
-  <si>
     <t>[3029,3030]</t>
   </si>
   <si>
     <t>[0.8,1]</t>
   </si>
   <si>
-    <t>怪物16</t>
-  </si>
-  <si>
     <t>[0.3]</t>
   </si>
   <si>
-    <t>怪物17</t>
-  </si>
-  <si>
-    <t>怪物18</t>
-  </si>
-  <si>
     <t>[3033]</t>
   </si>
   <si>
-    <t>怪物19</t>
-  </si>
-  <si>
-    <t>怪物20</t>
-  </si>
-  <si>
-    <t>怪物21</t>
-  </si>
-  <si>
-    <t>怪物22</t>
-  </si>
-  <si>
-    <t>怪物23</t>
-  </si>
-  <si>
-    <t>怪物24</t>
-  </si>
-  <si>
     <t>[3010]</t>
   </si>
   <si>
     <t>[1.5]</t>
-  </si>
-  <si>
-    <t>怪物25</t>
-  </si>
-  <si>
-    <t>怪物26</t>
-  </si>
-  <si>
-    <t>怪物27</t>
-  </si>
-  <si>
-    <t>怪物28</t>
-  </si>
-  <si>
-    <t>怪物29</t>
-  </si>
-  <si>
-    <t>怪物30</t>
-  </si>
-  <si>
-    <t>怪物31</t>
   </si>
 </sst>
 </file>
@@ -513,12 +420,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1324,7 +1231,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J41" sqref="J41"/>
+      <selection pane="bottomRight" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1586,17 +1493,15 @@
       <c r="A4" s="3">
         <v>1001</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>33</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
       </c>
       <c r="F4" s="3">
         <v>3001</v>
@@ -1645,7 +1550,7 @@
         <v>0.5</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W4" s="3">
         <v>10</v>
@@ -1664,9 +1569,7 @@
       <c r="A5" s="3">
         <v>1002</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="B5" s="3"/>
       <c r="C5" s="3">
         <v>1</v>
       </c>
@@ -1674,13 +1577,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="3">
         <v>3002</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H5" s="3">
         <v>6</v>
@@ -1725,7 +1628,7 @@
         <v>0.5</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W5" s="3">
         <v>10</v>
@@ -1744,9 +1647,7 @@
       <c r="A6" s="3">
         <v>1003</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="3">
         <v>2</v>
       </c>
@@ -1754,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F6" s="3">
         <v>3008</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H6" s="3">
         <v>0</v>
@@ -1805,7 +1706,7 @@
         <v>0.6</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="W6" s="3">
         <v>10</v>
@@ -1824,9 +1725,7 @@
       <c r="A7" s="3">
         <v>1004</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="3">
         <v>3</v>
       </c>
@@ -1834,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F7" s="3">
         <v>3004</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H7" s="3">
         <v>6</v>
@@ -1885,7 +1784,7 @@
         <v>0.2</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W7" s="3">
         <v>10</v>
@@ -1904,9 +1803,7 @@
       <c r="A8" s="3">
         <v>1005</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="3">
         <v>5</v>
       </c>
@@ -1917,7 +1814,7 @@
         <v>3011</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H8" s="3">
         <v>0</v>
@@ -1962,7 +1859,7 @@
         <v>0.7</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="W8" s="3">
         <v>10</v>
@@ -1981,9 +1878,7 @@
       <c r="A9" s="3">
         <v>1006</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="3">
         <v>6</v>
       </c>
@@ -1991,13 +1886,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="3">
         <v>3013</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H9" s="3">
         <v>24</v>
@@ -2042,7 +1937,7 @@
         <v>0.5</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W9" s="3">
         <v>10</v>
@@ -2061,9 +1956,7 @@
       <c r="A10" s="3">
         <v>1007</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="3">
         <v>1</v>
       </c>
@@ -2071,13 +1964,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" s="3">
         <v>3002</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H10" s="3">
         <v>6</v>
@@ -2122,7 +2015,7 @@
         <v>0.5</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W10" s="3">
         <v>10</v>
@@ -2141,9 +2034,7 @@
       <c r="A11" s="8">
         <v>1008</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="B11" s="8"/>
       <c r="C11" s="8">
         <v>7</v>
       </c>
@@ -2151,13 +2042,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" s="8">
         <v>3019</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H11" s="8">
         <v>0</v>
@@ -2202,7 +2093,7 @@
         <v>0.3</v>
       </c>
       <c r="V11" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W11" s="8">
         <v>10</v>
@@ -2221,9 +2112,7 @@
       <c r="A12" s="8">
         <v>1009</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B12" s="8"/>
       <c r="C12" s="8">
         <v>8</v>
       </c>
@@ -2231,13 +2120,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F12" s="8">
         <v>3018</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -2282,7 +2171,7 @@
         <v>0.2</v>
       </c>
       <c r="V12" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="W12" s="8">
         <v>10</v>
@@ -2301,9 +2190,7 @@
       <c r="A13" s="8">
         <v>1010</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B13" s="8"/>
       <c r="C13" s="8">
         <v>9</v>
       </c>
@@ -2311,13 +2198,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F13" s="8">
         <v>3023</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H13" s="8">
         <v>35</v>
@@ -2362,7 +2249,7 @@
         <v>0.44</v>
       </c>
       <c r="V13" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="W13" s="8">
         <v>10</v>
@@ -2381,9 +2268,7 @@
       <c r="A14" s="3">
         <v>1011</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>59</v>
-      </c>
+      <c r="B14" s="3"/>
       <c r="C14" s="3">
         <v>10</v>
       </c>
@@ -2391,13 +2276,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F14" s="3">
         <v>3020</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -2442,7 +2327,7 @@
         <v>0.5</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="W14" s="3">
         <v>10</v>
@@ -2461,9 +2346,7 @@
       <c r="A15" s="8">
         <v>1012</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="B15" s="8"/>
       <c r="C15" s="8">
         <v>11</v>
       </c>
@@ -2471,13 +2354,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F15" s="8">
         <v>3023</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H15" s="8">
         <v>0</v>
@@ -2522,7 +2405,7 @@
         <v>0.8</v>
       </c>
       <c r="V15" s="8" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="W15" s="8">
         <v>10</v>
@@ -2541,9 +2424,7 @@
       <c r="A16" s="3">
         <v>1013</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="3">
         <v>12</v>
       </c>
@@ -2554,7 +2435,7 @@
         <v>3024</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H16" s="3">
         <v>0</v>
@@ -2599,7 +2480,7 @@
         <v>0.3</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="W16" s="3">
         <v>10</v>
@@ -2618,9 +2499,7 @@
       <c r="A17" s="8">
         <v>1014</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="B17" s="8"/>
       <c r="C17" s="8">
         <v>13</v>
       </c>
@@ -2628,13 +2507,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F17" s="8">
         <v>3027</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="H17" s="8">
         <v>0</v>
@@ -2679,7 +2558,7 @@
         <v>0.5</v>
       </c>
       <c r="V17" s="8" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="W17" s="8">
         <v>10</v>
@@ -2698,9 +2577,7 @@
       <c r="A18" s="3">
         <v>1015</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>69</v>
-      </c>
+      <c r="B18" s="3"/>
       <c r="C18" s="3">
         <v>14</v>
       </c>
@@ -2711,7 +2588,7 @@
         <v>3028</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H18" s="3">
         <v>0</v>
@@ -2756,7 +2633,7 @@
         <v>0.3</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="W18" s="3">
         <v>10</v>
@@ -2775,9 +2652,7 @@
       <c r="A19" s="8">
         <v>1016</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="B19" s="8"/>
       <c r="C19" s="8">
         <v>15</v>
       </c>
@@ -2785,13 +2660,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" s="8">
         <v>3029</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H19" s="8">
         <v>0</v>
@@ -2836,7 +2711,7 @@
         <v>0.3</v>
       </c>
       <c r="V19" s="8" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="W19" s="8">
         <v>10</v>
@@ -2855,9 +2730,7 @@
       <c r="A20" s="8">
         <v>1017</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="B20" s="8"/>
       <c r="C20" s="8">
         <v>16</v>
       </c>
@@ -2865,13 +2738,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F20" s="8">
         <v>3031</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H20" s="8">
         <v>0</v>
@@ -2916,7 +2789,7 @@
         <v>0.5</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="W20" s="8">
         <v>10</v>
@@ -2935,9 +2808,7 @@
       <c r="A21" s="3">
         <v>1018</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="B21"/>
       <c r="C21" s="3">
         <v>17</v>
       </c>
@@ -2948,7 +2819,7 @@
         <v>3032</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="H21" s="3">
         <v>0</v>
@@ -2993,7 +2864,7 @@
         <v>0.7</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="W21" s="3">
         <v>10</v>
@@ -3012,9 +2883,7 @@
       <c r="A22" s="3">
         <v>2001</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="B22" s="3"/>
       <c r="C22" s="3">
         <v>0</v>
       </c>
@@ -3068,7 +2937,7 @@
         <v>0.5</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W22" s="3">
         <v>10</v>
@@ -3087,9 +2956,7 @@
       <c r="A23" s="3">
         <v>2002</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="B23" s="3"/>
       <c r="C23" s="3">
         <v>1</v>
       </c>
@@ -3143,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="W23" s="3">
         <v>10</v>
@@ -3162,9 +3029,7 @@
       <c r="A24" s="7">
         <v>2003</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>79</v>
-      </c>
+      <c r="B24" s="7"/>
       <c r="C24" s="7">
         <v>14</v>
       </c>
@@ -3218,7 +3083,7 @@
         <v>1</v>
       </c>
       <c r="V24" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="W24" s="7">
         <v>10</v>
@@ -3237,9 +3102,7 @@
       <c r="A25" s="3">
         <v>2004</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="B25" s="3"/>
       <c r="C25" s="3">
         <v>3</v>
       </c>
@@ -3293,7 +3156,7 @@
         <v>0.42</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="W25" s="3">
         <v>10</v>
@@ -3312,9 +3175,7 @@
       <c r="A26" s="7">
         <v>2005</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>81</v>
-      </c>
+      <c r="B26" s="7"/>
       <c r="C26" s="7">
         <v>12</v>
       </c>
@@ -3368,7 +3229,7 @@
         <v>0.3</v>
       </c>
       <c r="V26" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="W26" s="7">
         <v>10</v>
@@ -3387,9 +3248,7 @@
       <c r="A27" s="3">
         <v>2006</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>82</v>
-      </c>
+      <c r="B27" s="3"/>
       <c r="C27" s="3">
         <v>5</v>
       </c>
@@ -3400,7 +3259,7 @@
         <v>3009</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="H27" s="3">
         <v>20</v>
@@ -3445,7 +3304,7 @@
         <v>0.52</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="W27" s="3">
         <v>10</v>
@@ -3464,9 +3323,7 @@
       <c r="A28" s="3">
         <v>2012</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="B28" s="3"/>
       <c r="C28" s="3">
         <v>6</v>
       </c>
@@ -3520,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="W28" s="3">
         <v>10</v>
@@ -3539,9 +3396,7 @@
       <c r="A29" s="3">
         <v>2013</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="B29" s="3"/>
       <c r="C29" s="3">
         <v>7</v>
       </c>
@@ -3595,7 +3450,7 @@
         <v>1</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="W29" s="3">
         <v>10</v>
@@ -3614,9 +3469,7 @@
       <c r="A30" s="3">
         <v>2014</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>87</v>
-      </c>
+      <c r="B30" s="3"/>
       <c r="C30" s="3">
         <v>8</v>
       </c>
@@ -3670,7 +3523,7 @@
         <v>0.42</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="W30" s="3">
         <v>10</v>
@@ -3689,9 +3542,7 @@
       <c r="A31" s="3">
         <v>2015</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="B31" s="3"/>
       <c r="C31" s="3">
         <v>9</v>
       </c>
@@ -3745,7 +3596,7 @@
         <v>0.3</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="W31" s="3">
         <v>10</v>
@@ -3764,9 +3615,7 @@
       <c r="A32" s="3">
         <v>2016</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="B32" s="3"/>
       <c r="C32" s="3">
         <v>10</v>
       </c>
@@ -3777,7 +3626,7 @@
         <v>3009</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="H32" s="3">
         <v>20</v>
@@ -3822,7 +3671,7 @@
         <v>0.52</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="W32" s="3">
         <v>10</v>
@@ -3841,9 +3690,7 @@
       <c r="A33" s="7">
         <v>2017</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="B33" s="7"/>
       <c r="C33" s="7">
         <v>15</v>
       </c>
@@ -3897,7 +3744,7 @@
         <v>0.3</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="W33" s="7">
         <v>10</v>
@@ -3916,9 +3763,7 @@
       <c r="A34" s="3">
         <v>3001</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="B34" s="3"/>
       <c r="C34" s="3">
         <v>0</v>
       </c>
@@ -3972,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="W34" s="3">
         <v>0</v>
